--- a/ecosysem/db/Excels/B.xlsx
+++ b/ecosysem/db/Excels/B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3CF7E7-F98F-43F6-84F5-EFEA88E0FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4FE8C8-4D95-4A02-8A03-48D6EB6A7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
+    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,8 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/db/Excels/B.xlsx
+++ b/ecosysem/db/Excels/B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\db\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4FE8C8-4D95-4A02-8A03-48D6EB6A7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C628B-7AA0-4A4F-95A7-01F0BFDE60C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A13132EB-A149-4D8F-BD03-0192B745A142}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
   <si>
     <t>IUPAC</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>H2S</t>
+  </si>
+  <si>
+    <t>Nitrous acid</t>
+  </si>
+  <si>
+    <t>Nitric acid</t>
+  </si>
+  <si>
+    <t>HNO2</t>
+  </si>
+  <si>
+    <t>HNO3</t>
   </si>
 </sst>
 </file>
@@ -607,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B001722-B163-4E4C-959D-0EB9FF063803}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,6 +1178,74 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
